--- a/results/Vitamedic.xlsx
+++ b/results/Vitamedic.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\marcandoOTempo\estoquePy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\marcandoOTempo\estoquePy\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="265">
   <si>
     <t>DSCPROD</t>
   </si>
@@ -33,7 +33,7 @@
     <t>ACET ACECLOFENACO 100MG C/12 CPR REV(G)</t>
   </si>
   <si>
-    <t>66</t>
+    <t>2126</t>
   </si>
   <si>
     <t>VITAMEDIC</t>
@@ -42,6 +42,9 @@
     <t>ACET DEXAMETASONA CRM DERM 1MG 10G(G)</t>
   </si>
   <si>
+    <t>1236</t>
+  </si>
+  <si>
     <t>ACICLOVIR CRM 50MG 10G(G)</t>
   </si>
   <si>
@@ -54,30 +57,54 @@
     <t>ALGY 100MG 20ML</t>
   </si>
   <si>
+    <t>6025</t>
+  </si>
+  <si>
     <t>ALGY FLANDERIL 300MG C/20 CPR</t>
   </si>
   <si>
+    <t>2014</t>
+  </si>
+  <si>
     <t>ALGY FLANDERIL 600MG C/10 CPS MOLE</t>
   </si>
   <si>
     <t>ALGY FLANDERIL 600MG C/20 CPR</t>
   </si>
   <si>
+    <t>1552</t>
+  </si>
+  <si>
     <t>ALGY FLANDERIL 600MG C/30 CPR</t>
   </si>
   <si>
+    <t>717</t>
+  </si>
+  <si>
     <t>ALLWHEYS RECOVER PROTEIN PO 525G ABACAXI / COCO</t>
   </si>
   <si>
+    <t>17660</t>
+  </si>
+  <si>
     <t>ALLWHEYS RECOVER PROTEIN PO 525G LARANJA / TANGERINA</t>
   </si>
   <si>
+    <t>4147</t>
+  </si>
+  <si>
     <t>ALLWHEYS RECOVER PROTEIN PO 525G LIMAO SICILIANO</t>
   </si>
   <si>
+    <t>851</t>
+  </si>
+  <si>
     <t>AMLODIL 10MG C/30 CPR</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>AMLODIL 5MG C/30 CPR</t>
   </si>
   <si>
@@ -90,15 +117,24 @@
     <t>ATENOLOL 25MG C/30 CPR(G)</t>
   </si>
   <si>
+    <t>985</t>
+  </si>
+  <si>
     <t>ATENOLOL 50MG C/30 CPR(G)</t>
   </si>
   <si>
+    <t>9603</t>
+  </si>
+  <si>
     <t>ATENOLOL+CLORTALIDONA 100MG+25MG C/30 CPR(G)</t>
   </si>
   <si>
     <t>ATENOLOL+CLORTALIDONA 50MG+12,5MG C/30 CPR(G)</t>
   </si>
   <si>
+    <t>2688</t>
+  </si>
+  <si>
     <t>BARRA PROTEINA ALLWHEYS 40G CHOCOLATE COCONUT C/12UN</t>
   </si>
   <si>
@@ -114,15 +150,27 @@
     <t>BEAUTY IN PO 220G REFRESHING BLACKBERRY</t>
   </si>
   <si>
+    <t>2820</t>
+  </si>
+  <si>
     <t>BERITIN KIDS 240ML</t>
   </si>
   <si>
+    <t>7139</t>
+  </si>
+  <si>
     <t>BES ANLODIPINO 10MG C/30 CPR(G)</t>
   </si>
   <si>
+    <t>6002</t>
+  </si>
+  <si>
     <t>BES ANLODIPINO 5MG C/30 CPR(G)</t>
   </si>
   <si>
+    <t>16629</t>
+  </si>
+  <si>
     <t>BIOVARIXON 450MG+50MG C/30 CPR REV</t>
   </si>
   <si>
@@ -132,6 +180,9 @@
     <t>BIOVARIXON 900MG+100MG C/30 CPR REV</t>
   </si>
   <si>
+    <t>3175</t>
+  </si>
+  <si>
     <t>BIOVARIXON 900MG+100MG C/60 CPR REV</t>
   </si>
   <si>
@@ -147,15 +198,24 @@
     <t>CAFEINA COFFUEL PO 220G BAUNILHA</t>
   </si>
   <si>
+    <t>1906</t>
+  </si>
+  <si>
     <t>CAFEINA COFFUEL PO 220G CARAMELO / BAUNILHA</t>
   </si>
   <si>
+    <t>3197</t>
+  </si>
+  <si>
     <t>CAFEINA COFFUEL PO 220G CHOCOLATE</t>
   </si>
   <si>
     <t>CLOR CICLOBENZAPRINA 10MG C/15 CPR REV(G)</t>
   </si>
   <si>
+    <t>5359</t>
+  </si>
+  <si>
     <t>CLOR CICLOBENZAPRINA 10MG C/30 CPR REV(G)</t>
   </si>
   <si>
@@ -165,6 +225,9 @@
     <t>CLOR CICLOBENZAPRINA 5MG C/30 CPR REV(G)</t>
   </si>
   <si>
+    <t>1104</t>
+  </si>
+  <si>
     <t>CLOR FEXOFENADINA 6MG 150ML(G)</t>
   </si>
   <si>
@@ -186,33 +249,57 @@
     <t>CLORDILON 50MG C/30 CPR</t>
   </si>
   <si>
+    <t>339</t>
+  </si>
+  <si>
     <t>CLORTALIDONA 50MG C/30 CPR(G)</t>
   </si>
   <si>
     <t>DEXAME CEXAME CRM DERM 1MG 10G</t>
   </si>
   <si>
+    <t>144</t>
+  </si>
+  <si>
     <t>DICLOR FLUNARIZINA 10MG C/50 CPR</t>
   </si>
   <si>
     <t>DIGESTOX SUPERFUEL PO 300G ABACAXI LIMAO</t>
   </si>
   <si>
+    <t>6510</t>
+  </si>
+  <si>
     <t>DIGESTOX SUPERFUEL PO 300G MARACUJA LIMAO</t>
   </si>
   <si>
+    <t>2276</t>
+  </si>
+  <si>
     <t>DIMENIDRIN 25MG+5MG 20ML</t>
   </si>
   <si>
+    <t>12938</t>
+  </si>
+  <si>
     <t>DIMENIDRINATO+CLOR PIRIDOXINA 25MG+5MG 20ML(G)</t>
   </si>
   <si>
+    <t>4990</t>
+  </si>
+  <si>
     <t>DIPIRONA MONOIDRATADA 500 C/10 CPR(G)</t>
   </si>
   <si>
+    <t>5644</t>
+  </si>
+  <si>
     <t>DIPIRONA MONOIDRATADA 500MG C/200 CPR(G)</t>
   </si>
   <si>
+    <t>17872</t>
+  </si>
+  <si>
     <t>DORALEX 1G C/10 CPR</t>
   </si>
   <si>
@@ -225,30 +312,60 @@
     <t>DORALEX 500MG C/30 CPR</t>
   </si>
   <si>
+    <t>10906</t>
+  </si>
+  <si>
     <t>ENERGRIP C 1G C/10 CPR EFER LARANJA</t>
   </si>
   <si>
+    <t>10700</t>
+  </si>
+  <si>
     <t>ENERGRIP C 1G C/30 CPR EFER LARANJA</t>
   </si>
   <si>
+    <t>2425</t>
+  </si>
+  <si>
     <t>ENERGRIP C IMUNO ENERGY C/16 EFER LARANJA</t>
   </si>
   <si>
+    <t>4211</t>
+  </si>
+  <si>
     <t>ENERGRIP C TRIPLA ACAO C/30 CPR EFER LARANJA</t>
   </si>
   <si>
+    <t>9785</t>
+  </si>
+  <si>
+    <t>14756</t>
+  </si>
+  <si>
     <t>ENERGRIP C+ZINCO C/10 CPR EFER LARANJA</t>
   </si>
   <si>
+    <t>15277</t>
+  </si>
+  <si>
     <t>ENERGRIP C+ZINCO C/30 CPR EFER LARANJA</t>
   </si>
   <si>
+    <t>14454</t>
+  </si>
+  <si>
     <t>ENERGRIP CAPS 500MG C/20 CPS</t>
   </si>
   <si>
+    <t>16454</t>
+  </si>
+  <si>
     <t>FLUCONAZOL 150MG C/01 CPS(G)</t>
   </si>
   <si>
+    <t>5065</t>
+  </si>
+  <si>
     <t>FLUCONAZOL 150MG C/02 CPS(G)</t>
   </si>
   <si>
@@ -258,33 +375,60 @@
     <t>FLUCONID 150MG C/02 CPS</t>
   </si>
   <si>
+    <t>17512</t>
+  </si>
+  <si>
     <t>FORDAY ENERGY C/16 CPR EFER LARANJA</t>
   </si>
   <si>
     <t>FOSFATO SODICO PREDNISOLONA 3MG 120ML(G)</t>
   </si>
   <si>
+    <t>13302</t>
+  </si>
+  <si>
     <t>FOSFATO SODICO PREDNISOLONA 3MG 60ML(G)</t>
   </si>
   <si>
+    <t>15660</t>
+  </si>
+  <si>
     <t>FUEL UP C/60 CPS</t>
   </si>
   <si>
+    <t>7153</t>
+  </si>
+  <si>
     <t>GLICOMET 500MG C/30 CPR</t>
   </si>
   <si>
+    <t>17106</t>
+  </si>
+  <si>
     <t>GLICOMET 850MG C/30 CPR</t>
   </si>
   <si>
+    <t>15119</t>
+  </si>
+  <si>
     <t>GOALMY GUMMIES AFTER PARTY C/60 GOMAS FRAMBOESA</t>
   </si>
   <si>
+    <t>3025</t>
+  </si>
+  <si>
     <t>GOALMY GUMMIES APPLE CIDER VINEGAR C/60 GOMAS MACA</t>
   </si>
   <si>
+    <t>4472</t>
+  </si>
+  <si>
     <t>GOALMY GUMMIES COLLAGEN C/60 GOMAS MORANGO</t>
   </si>
   <si>
+    <t>2206</t>
+  </si>
+  <si>
     <t>GOALMY GUMMIES CREATINE C/60 GOMAS MACA VERDE</t>
   </si>
   <si>
@@ -294,6 +438,9 @@
     <t>GOALMY GUMMIES GLUTAMINE C/60 GOMAS COCO</t>
   </si>
   <si>
+    <t>235</t>
+  </si>
+  <si>
     <t>GOALMY GUMMIES HAIR SKIN NAILS C/60 GOMAS MORANGO</t>
   </si>
   <si>
@@ -312,6 +459,9 @@
     <t>GOALMY GUMMIES PROTEIN C/90 GOMAS BAUNILHA</t>
   </si>
   <si>
+    <t>15737</t>
+  </si>
+  <si>
     <t>GOALMY GUMMIES PROTEIN C/90 GOMAS CHOCOLATE</t>
   </si>
   <si>
@@ -324,18 +474,33 @@
     <t>HEMODASE POM 25G 10 APLIC</t>
   </si>
   <si>
+    <t>40</t>
+  </si>
+  <si>
     <t>HEMODASE POM 25G 6 APLIC</t>
   </si>
   <si>
+    <t>16634</t>
+  </si>
+  <si>
     <t>HEPATOVIT 10ML C/60 FLAC ABACAXI</t>
   </si>
   <si>
+    <t>3556</t>
+  </si>
+  <si>
     <t>HEPATOVIT 10ML C/60 FLAC BOLD</t>
   </si>
   <si>
+    <t>17776</t>
+  </si>
+  <si>
     <t>IBUPROFENO 100MG 20ML TUTTI FRUTTI(G)</t>
   </si>
   <si>
+    <t>3251</t>
+  </si>
+  <si>
     <t>IBUPROFENO 600MG C/10 CPR MOLE(G)</t>
   </si>
   <si>
@@ -357,6 +522,9 @@
     <t>KARIZAN POM 10G</t>
   </si>
   <si>
+    <t>130</t>
+  </si>
+  <si>
     <t>LIMP LENT SOL FS 150ML+FR 120ML+1 ESTOJO</t>
   </si>
   <si>
@@ -372,6 +540,9 @@
     <t>MAL ENALAPRIL 20MG C/30 CPR(G)</t>
   </si>
   <si>
+    <t>15869</t>
+  </si>
+  <si>
     <t>MAL ENALAPRIL 5MG C/30 CPR(G)</t>
   </si>
   <si>
@@ -393,75 +564,147 @@
     <t>NIMELIT 50MG 15ML</t>
   </si>
   <si>
+    <t>14271</t>
+  </si>
+  <si>
     <t>NIMESULIDA 100MG C/12 CPR(G)</t>
   </si>
   <si>
+    <t>201</t>
+  </si>
+  <si>
     <t>NIMESULIDA 50MG 15ML(G)</t>
   </si>
   <si>
+    <t>8827</t>
+  </si>
+  <si>
     <t>OST PRO PO 110G CANELA MACA</t>
   </si>
   <si>
+    <t>11781</t>
+  </si>
+  <si>
     <t>PARACETAMOL 140MG 15ML(G)</t>
   </si>
   <si>
+    <t>4425</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
     <t>PARACETAMOL 200MG 15ML(G)</t>
   </si>
   <si>
+    <t>643</t>
+  </si>
+  <si>
     <t>PARACETAMOL 32MG 60ML(G)</t>
   </si>
   <si>
+    <t>14097</t>
+  </si>
+  <si>
     <t>PARACETAMOL 750MG C/20 CPR(G)</t>
   </si>
   <si>
+    <t>5189</t>
+  </si>
+  <si>
     <t>POLIVITAMINICO TESTO + MAN PO 150G LIMAO</t>
   </si>
   <si>
+    <t>3775</t>
+  </si>
+  <si>
     <t>POLIVITAMINICO TESTO + WOMAN C/90 CPS</t>
   </si>
   <si>
+    <t>13287</t>
+  </si>
+  <si>
     <t>POWERFUEL CREATINA PO 300G S/SABOR</t>
   </si>
   <si>
+    <t>13107</t>
+  </si>
+  <si>
     <t>POWERFUEL MUSCLE PACK EGG PROTEIN PO 900G CHOCOLATE C/MENTA</t>
   </si>
   <si>
+    <t>7381</t>
+  </si>
+  <si>
     <t>POWERFUEL MUSCLE PACK EGG PROTEIN PO 900G PEANUT BUTTER</t>
   </si>
   <si>
+    <t>16561</t>
+  </si>
+  <si>
     <t>POWERFUEL MUSCLE PACK EGG PROTEIN PO 900G SALTED CARAMEL</t>
   </si>
   <si>
+    <t>2729</t>
+  </si>
+  <si>
     <t>POWERFUEL MUSCLE PACK WHEY PROTEIN PO 900G CHOCOLATE</t>
   </si>
   <si>
+    <t>18189</t>
+  </si>
+  <si>
     <t>POWERFUEL MUSCLE PACK WHEY PROTEIN PO 900G MORANGO</t>
   </si>
   <si>
+    <t>11724</t>
+  </si>
+  <si>
     <t>PROGRASS VEGAN PROTEIN PO 490G BANANA / CANELA</t>
   </si>
   <si>
+    <t>4198</t>
+  </si>
+  <si>
     <t>PROGRASS VEGAN PROTEIN PO 490G CARAMELO / CASTANHAS</t>
   </si>
   <si>
+    <t>10046</t>
+  </si>
+  <si>
     <t>PROGRASS VEGAN PROTEIN PO 490G CHOCOLATE / AVELA</t>
   </si>
   <si>
     <t>PROGRASS VEGAN PROTEIN PO 490G CHOCOLATE / COCO</t>
   </si>
   <si>
+    <t>2878</t>
+  </si>
+  <si>
     <t>RENAPRIL 20MG C/30 CPR</t>
   </si>
   <si>
+    <t>5558</t>
+  </si>
+  <si>
     <t>RESSAQUE 500MG C/60 CPS 30X02</t>
   </si>
   <si>
+    <t>7991</t>
+  </si>
+  <si>
     <t>RISPERIDONA 1MG C/30 CPR REV(G)(C1)</t>
   </si>
   <si>
+    <t>18240</t>
+  </si>
+  <si>
     <t>RISPERIDONA 2MG C/30 CPR REV(G)(C1)</t>
   </si>
   <si>
+    <t>2470</t>
+  </si>
+  <si>
     <t>RISPERIDONA 3MG C/30 CPR REV(G)(C1)</t>
   </si>
   <si>
@@ -471,15 +714,27 @@
     <t>SECDAZOL 1000MG C/02 CPR REV</t>
   </si>
   <si>
+    <t>7976</t>
+  </si>
+  <si>
     <t>SECNIDAZOL 1000MG C/02 CPR REV(G)</t>
   </si>
   <si>
+    <t>350</t>
+  </si>
+  <si>
     <t>SLEEPFUEL PO 110G LIMAO GENGBRE MEL</t>
   </si>
   <si>
+    <t>13985</t>
+  </si>
+  <si>
     <t>SLEEPFUEL PO 300G MARACUJA LIMA</t>
   </si>
   <si>
+    <t>7444</t>
+  </si>
+  <si>
     <t>SUAVEBABY MENINA CR 45G</t>
   </si>
   <si>
@@ -489,40 +744,70 @@
     <t>SUAVEBABY POM 45G</t>
   </si>
   <si>
+    <t>2373</t>
+  </si>
+  <si>
     <t>SUAVMEL XPE 150ML GUACO/MENTA</t>
   </si>
   <si>
+    <t>17458</t>
+  </si>
+  <si>
     <t>SUAVMEL XPE INF 120ML TUTTI FRUTTI</t>
   </si>
   <si>
     <t>SULF NEOMIC 5MG+BACIT ZINC 250UI POM 10G</t>
   </si>
   <si>
+    <t>16856</t>
+  </si>
+  <si>
     <t>SULF+TRIMETOPRIMA 200MG+40MG 100ML(G)(C.ESP)</t>
   </si>
   <si>
+    <t>2220</t>
+  </si>
+  <si>
     <t>SULF+TRIMETOPRIMA 400MG+80MG C/20 CPR(G)(C.ESP)</t>
   </si>
   <si>
     <t>TENOLON 100MG C/30 CPR</t>
   </si>
   <si>
+    <t>974</t>
+  </si>
+  <si>
     <t>VEGAN FUEL OMEGA DHA C/30 CPS</t>
   </si>
   <si>
+    <t>2393</t>
+  </si>
+  <si>
     <t>VERTIZAN 10MG C/50 CPR</t>
   </si>
   <si>
+    <t>1501</t>
+  </si>
+  <si>
     <t>VIT PANTENOL POM 50MG 30G</t>
   </si>
   <si>
+    <t>4402</t>
+  </si>
+  <si>
     <t>VITAMINA D3 50.000UI C/04 CPR REV</t>
   </si>
   <si>
+    <t>1547</t>
+  </si>
+  <si>
     <t>VITAMINA D3 7.000UI C/30 CPR REV</t>
   </si>
   <si>
     <t>VITDERA D3 50.000 UI C/04 CPR REV</t>
+  </si>
+  <si>
+    <t>1122</t>
   </si>
   <si>
     <t>WARMUP PO 110G INDIAN SPICES</t>
@@ -896,16 +1181,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B172" sqref="B172"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="B152" sqref="B152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="71" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="65.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -920,1844 +1204,1843 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3884</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>560</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>838</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
+      <c r="A7" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
+      <c r="A8" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2">
+        <v>741</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
+      <c r="A10" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
+      <c r="A11" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
+      <c r="A12" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>16</v>
+      <c r="A13" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>17</v>
+      <c r="A14" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>18</v>
+      <c r="A15" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="A16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1668</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="A17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="2">
+        <v>725</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="A18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="2">
+        <v>454</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>22</v>
+      <c r="A19" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>23</v>
+      <c r="A20" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="A21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1674</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>25</v>
+      <c r="A22" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="A23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="2">
+        <v>18427</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="2">
+        <v>19188</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="2">
+        <v>17065</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="2">
+        <v>17652</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="2">
+        <v>775</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="2">
+        <v>464</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="2">
+        <v>413</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="2">
+        <v>676</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1129</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="2">
+        <v>997</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1726</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="2">
+        <v>13700</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="2">
+        <v>13700</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" s="2">
+        <v>323</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="2">
+        <v>738</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" s="2">
+        <v>426</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1696</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" s="2">
+        <v>720</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" s="2">
+        <v>1332</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" s="2">
+        <v>669</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54" s="2">
+        <v>1559</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B61" s="2">
+        <v>1262</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B62" s="2">
+        <v>553</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B63" s="2">
+        <v>441</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>57</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>58</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C55" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>59</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C56" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>60</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C57" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>61</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C58" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>62</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C59" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>63</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C60" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>64</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>65</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C62" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>66</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>67</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C64" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>68</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C65" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>69</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>70</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C67" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>71</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C68" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C69" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>72</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C70" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>73</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C71" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>74</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C72" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>75</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C73" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>76</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="C74" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>77</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="A75" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B75" s="2">
+        <v>508</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>78</v>
+      <c r="A76" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C76" t="s">
+        <v>118</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>79</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="A77" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B77" s="2">
+        <v>365</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>80</v>
+      <c r="A78" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C78" t="s">
+        <v>121</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>81</v>
+      <c r="A79" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C79" t="s">
+        <v>123</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>82</v>
+      <c r="A80" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C80" t="s">
+        <v>125</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="A81" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B86" s="2">
+        <v>1031</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B87" s="2">
+        <v>1363</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B89" s="2">
         <v>83</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C81" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>84</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C82" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>85</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C83" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>86</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C84" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>87</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C85" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>88</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C86" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>89</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C87" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>90</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C88" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>91</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C89" t="s">
+      <c r="C89" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>92</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C90" t="s">
+      <c r="A90" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B90" s="2">
+        <v>232</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>93</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="A91" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B91" s="2">
+        <v>962</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>94</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="A92" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B92" s="2">
+        <v>108</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>95</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="A93" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B93" s="2">
+        <v>136</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>96</v>
+      <c r="A94" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C94" t="s">
+        <v>146</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>97</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="A95" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B95" s="2">
+        <v>1116</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>98</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="A96" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B96" s="2">
+        <v>1202</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>99</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="A97" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B97" s="2">
+        <v>1561</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>100</v>
+      <c r="A98" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C98" t="s">
+        <v>151</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>101</v>
+      <c r="A99" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C99" t="s">
+        <v>153</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>102</v>
+      <c r="A100" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C100" t="s">
+        <v>155</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>103</v>
+      <c r="A101" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C101" t="s">
+        <v>157</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>104</v>
+      <c r="A102" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C102" t="s">
+        <v>159</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>105</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="A103" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B103" s="2">
+        <v>1468</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>106</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="A104" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B104" s="2">
+        <v>801</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="A105" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B105" s="2">
+        <v>897</v>
+      </c>
+      <c r="C105" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>108</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C106" t="s">
+      <c r="A106" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B106" s="2">
+        <v>189</v>
+      </c>
+      <c r="C106" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>109</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C107" t="s">
+      <c r="A107" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B107" s="2">
+        <v>417</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>110</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C108" t="s">
+      <c r="A108" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B108" s="2">
+        <v>306</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>111</v>
+      <c r="A109" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C109" t="s">
+        <v>167</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>112</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C110" t="s">
+      <c r="A110" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B110" s="2">
+        <v>1660</v>
+      </c>
+      <c r="C110" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>113</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C111" t="s">
+      <c r="A111" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B111" s="2">
+        <v>652</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>114</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C112" t="s">
+      <c r="A112" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B112" s="2">
+        <v>579</v>
+      </c>
+      <c r="C112" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>115</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C113" t="s">
+      <c r="A113" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B113" s="2">
+        <v>131</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>116</v>
+      <c r="A114" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C114" t="s">
+        <v>173</v>
+      </c>
+      <c r="C114" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>117</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C115" t="s">
+      <c r="A115" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B115" s="2">
+        <v>14902</v>
+      </c>
+      <c r="C115" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>118</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C116" t="s">
+      <c r="A116" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B116" s="2">
+        <v>1068</v>
+      </c>
+      <c r="C116" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>119</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C117" t="s">
+      <c r="A117" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B117" s="2">
+        <v>1669</v>
+      </c>
+      <c r="C117" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>120</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C118" t="s">
+      <c r="A118" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B118" s="2">
+        <v>300</v>
+      </c>
+      <c r="C118" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>121</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C119" t="s">
+      <c r="A119" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B119" s="2">
+        <v>591</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>122</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C120" t="s">
+      <c r="A120" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B120" s="2">
+        <v>499</v>
+      </c>
+      <c r="C120" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>123</v>
+      <c r="A121" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C121" t="s">
+        <v>181</v>
+      </c>
+      <c r="C121" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>124</v>
+      <c r="A122" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C122" t="s">
+        <v>183</v>
+      </c>
+      <c r="C122" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>125</v>
+      <c r="A123" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C123" t="s">
+        <v>185</v>
+      </c>
+      <c r="C123" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>126</v>
+      <c r="A124" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C124" t="s">
+        <v>187</v>
+      </c>
+      <c r="C124" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>127</v>
+      <c r="A125" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C125" t="s">
+        <v>189</v>
+      </c>
+      <c r="C125" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>127</v>
+      <c r="A126" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C126" t="s">
+        <v>190</v>
+      </c>
+      <c r="C126" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>128</v>
+      <c r="A127" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C127" t="s">
+        <v>192</v>
+      </c>
+      <c r="C127" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>129</v>
+      <c r="A128" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C128" t="s">
+        <v>194</v>
+      </c>
+      <c r="C128" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>130</v>
+      <c r="A129" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C129" t="s">
+        <v>196</v>
+      </c>
+      <c r="C129" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>131</v>
+      <c r="A130" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C130" t="s">
+        <v>198</v>
+      </c>
+      <c r="C130" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>132</v>
+      <c r="A131" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C131" t="s">
+        <v>200</v>
+      </c>
+      <c r="C131" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>133</v>
+      <c r="A132" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C132" t="s">
+        <v>202</v>
+      </c>
+      <c r="C132" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>134</v>
+      <c r="A133" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C133" t="s">
+        <v>204</v>
+      </c>
+      <c r="C133" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>135</v>
+      <c r="A134" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C134" t="s">
+        <v>206</v>
+      </c>
+      <c r="C134" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>136</v>
+      <c r="A135" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C135" t="s">
+        <v>208</v>
+      </c>
+      <c r="C135" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>137</v>
+      <c r="A136" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C136" t="s">
+        <v>210</v>
+      </c>
+      <c r="C136" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>138</v>
+      <c r="A137" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C137" t="s">
+        <v>212</v>
+      </c>
+      <c r="C137" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>139</v>
+      <c r="A138" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C138" t="s">
+        <v>214</v>
+      </c>
+      <c r="C138" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>140</v>
+      <c r="A139" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C139" t="s">
+        <v>216</v>
+      </c>
+      <c r="C139" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>141</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C140" t="s">
+      <c r="A140" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B140" s="2">
+        <v>15066</v>
+      </c>
+      <c r="C140" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>142</v>
+      <c r="A141" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C141" t="s">
+        <v>219</v>
+      </c>
+      <c r="C141" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>143</v>
+      <c r="A142" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C142" t="s">
+        <v>221</v>
+      </c>
+      <c r="C142" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>144</v>
+      <c r="A143" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C143" t="s">
+        <v>223</v>
+      </c>
+      <c r="C143" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>145</v>
+      <c r="A144" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C144" t="s">
+        <v>225</v>
+      </c>
+      <c r="C144" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>146</v>
+      <c r="A145" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C145" t="s">
+        <v>227</v>
+      </c>
+      <c r="C145" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>147</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C146" t="s">
+      <c r="A146" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B146" s="2">
+        <v>919</v>
+      </c>
+      <c r="C146" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>148</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C147" t="s">
+      <c r="A147" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B147" s="2">
+        <v>714</v>
+      </c>
+      <c r="C147" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>149</v>
+      <c r="A148" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C148" t="s">
+        <v>231</v>
+      </c>
+      <c r="C148" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>150</v>
+      <c r="A149" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C149" t="s">
+        <v>233</v>
+      </c>
+      <c r="C149" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>151</v>
+      <c r="A150" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C150" t="s">
+        <v>235</v>
+      </c>
+      <c r="C150" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>152</v>
+      <c r="A151" s="2" t="s">
+        <v>236</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C151" t="s">
+        <v>237</v>
+      </c>
+      <c r="C151" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>153</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C152" t="s">
+      <c r="A152" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B152" s="2">
+        <v>1244</v>
+      </c>
+      <c r="C152" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>154</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C153" t="s">
+      <c r="A153" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B153" s="2">
+        <v>487</v>
+      </c>
+      <c r="C153" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>155</v>
+      <c r="A154" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C154" t="s">
+        <v>241</v>
+      </c>
+      <c r="C154" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>156</v>
+      <c r="A155" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C155" t="s">
+        <v>243</v>
+      </c>
+      <c r="C155" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>157</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C156" t="s">
+      <c r="A156" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B156" s="2">
+        <v>743</v>
+      </c>
+      <c r="C156" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>158</v>
+      <c r="A157" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C157" t="s">
+        <v>246</v>
+      </c>
+      <c r="C157" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>159</v>
+      <c r="A158" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C158" t="s">
+        <v>248</v>
+      </c>
+      <c r="C158" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>160</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C159" t="s">
+      <c r="A159" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B159" s="2">
+        <v>486</v>
+      </c>
+      <c r="C159" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>161</v>
+      <c r="A160" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C160" t="s">
+        <v>251</v>
+      </c>
+      <c r="C160" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>162</v>
+      <c r="A161" s="2" t="s">
+        <v>252</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C161" t="s">
+        <v>253</v>
+      </c>
+      <c r="C161" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>163</v>
+      <c r="A162" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C162" t="s">
+        <v>255</v>
+      </c>
+      <c r="C162" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>164</v>
+      <c r="A163" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C163" t="s">
+        <v>257</v>
+      </c>
+      <c r="C163" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>165</v>
+      <c r="A164" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C164" t="s">
+        <v>259</v>
+      </c>
+      <c r="C164" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>166</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C165" t="s">
+      <c r="A165" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B165" s="2">
+        <v>17281</v>
+      </c>
+      <c r="C165" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>167</v>
+      <c r="A166" s="2" t="s">
+        <v>261</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C166" t="s">
+        <v>262</v>
+      </c>
+      <c r="C166" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>168</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C167" t="s">
+      <c r="A167" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B167" s="2">
+        <v>1461</v>
+      </c>
+      <c r="C167" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>169</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C168" t="s">
+      <c r="A168" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B168" s="2">
+        <v>545</v>
+      </c>
+      <c r="C168" s="2" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>